--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E347078-DC32-4967-9D30-5FCB6409A889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E488EB-634C-4AC8-9BDC-340C55F226FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,15 +49,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有初步了解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>摸索Monte Carlo、Brownian等模擬方法，股價預測模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>仍需要多加熟悉程式撰寫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>價格模擬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +494,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -536,14 +536,14 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20352"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B4F730-9BFD-4DF3-B82F-F061A3D0A32F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B29506-737C-4477-9129-9D3332162BE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29748" windowHeight="13908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,26 @@
   </si>
   <si>
     <t>Monte Carlo、Brownian等模擬方法之程式撰寫，及股價預測模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅致遠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分別控制股價走勢與買進策略等兩變因分析模擬結果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成輸出分析結果的模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>協助價量模擬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立基本分析架構</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,24 +541,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="5"/>
+    <col min="3" max="3" width="20.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -558,7 +578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="62" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43794</v>
       </c>
@@ -578,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="77.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43794</v>
       </c>
@@ -596,6 +616,26 @@
       </c>
       <c r="F3" s="6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>43794</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B29506-737C-4477-9129-9D3332162BE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F336BC14-B9DD-AD46-B24B-7293D5C4DB50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29748" windowHeight="13908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,14 @@
   </si>
   <si>
     <t>建立基本分析架構</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究價量模擬方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援價量模擬工作，並完成相應的資料庫建置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -541,24 +549,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="5"/>
+    <col min="6" max="6" width="18.1640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -578,7 +586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="76">
       <c r="A2" s="4">
         <v>43794</v>
       </c>
@@ -598,7 +606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="95">
       <c r="A3" s="4">
         <v>43794</v>
       </c>
@@ -618,7 +626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="87" customHeight="1">
       <c r="A4" s="4">
         <v>43794</v>
       </c>
@@ -636,6 +644,26 @@
       </c>
       <c r="F4" s="5" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="57">
+      <c r="A6" s="4">
+        <v>43801</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F336BC14-B9DD-AD46-B24B-7293D5C4DB50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3A6DFE-75EB-6B47-8C55-372E551D3AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作進度" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作進度!$A$1:$F$8</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +109,21 @@
   </si>
   <si>
     <t>支援價量模擬工作，並完成相應的資料庫建置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參與12/15之討論，協助除錯價量模擬部份之程式碼，跑迴歸尋找超出交易上限時之價格變動函數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援價量模擬工作</t>
+  </si>
+  <si>
+    <t>支援價量模擬工作，完成書面報告、簡報及影片說明講稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參與12/18之討論，完成書面報告、簡報及影片說明講稿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,11 +567,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
@@ -586,29 +602,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="76">
+    <row r="2" spans="1:6" ht="95">
       <c r="A2" s="4">
         <v>43794</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="95">
+    <row r="3" spans="1:6" ht="57">
       <c r="A3" s="4">
-        <v>43794</v>
+        <v>43801</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -619,36 +635,56 @@
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="87" customHeight="1">
+    <row r="4" spans="1:6" ht="57">
       <c r="A4" s="4">
-        <v>43794</v>
+        <v>43808</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="95">
+      <c r="A5" s="4">
+        <v>43815</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="57">
       <c r="A6" s="4">
-        <v>43801</v>
+        <v>43822</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -659,14 +695,57 @@
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>22</v>
+      <c r="E6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="87" customHeight="1">
+      <c r="A7" s="4">
+        <v>43794</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="57">
+      <c r="A8" s="4">
+        <v>43794</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F8" xr:uid="{31FCF332-84A0-CC4E-B9AD-DFF3B8003DF5}">
+    <sortState ref="A2:F8">
+      <sortCondition ref="B1:B8"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3A6DFE-75EB-6B47-8C55-372E551D3AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42FBCDF-1D3E-419D-889C-19094DDD97BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作進度" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作進度!$A$1:$F$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作進度!$A$1:$F$12</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,40 @@
   </si>
   <si>
     <t>參與12/18之討論，完成書面報告、簡報及影片說明講稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳家畯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料蒐集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參與12/15之討論，協助執行程式碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成價量模型模擬</t>
+  </si>
+  <si>
+    <t>價量模擬</t>
+  </si>
+  <si>
+    <t>資料蒐集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參與12/18之討論，協助執行程式碼結果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成期末影片剪輯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>價量模擬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -567,22 +601,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="5"/>
+    <col min="3" max="3" width="20.81640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.81640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -602,7 +638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="95">
+    <row r="2" spans="1:6" ht="77.5" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>43794</v>
       </c>
@@ -622,7 +658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="57">
+    <row r="3" spans="1:6" ht="46.5" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>43801</v>
       </c>
@@ -642,7 +678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="57">
+    <row r="4" spans="1:6" ht="46.5" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>43808</v>
       </c>
@@ -662,7 +698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="95">
+    <row r="5" spans="1:6" ht="77.5" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>43815</v>
       </c>
@@ -682,7 +718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="57">
+    <row r="6" spans="1:6" ht="46.5" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>43822</v>
       </c>
@@ -700,7 +736,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="87" customHeight="1">
+    <row r="7" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>43794</v>
       </c>
@@ -720,23 +756,63 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="57">
+    <row r="8" spans="1:6" ht="33.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
+        <v>43815</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
+        <v>43822</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="46.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
         <v>43794</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>20</v>
       </c>
     </row>

--- a/工作進度.xlsx
+++ b/工作進度.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20353"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42FBCDF-1D3E-419D-889C-19094DDD97BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77288830-166F-4C67-AF81-0778E50C4AA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作進度" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,18 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分別控制股價走勢與買進策略等兩變因分析模擬結果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成輸出分析結果的模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>協助價量模擬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建立基本分析架構</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,6 +146,72 @@
   </si>
   <si>
     <t>價量模擬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考量流動性等因素，決定使用2330台積電作為分析標的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成接續的成本分析架構程式碼撰寫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰寫成本分析架構程式碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以R語言建構完整模型並解釋分析結果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>報告完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閱讀股價模型相關論文與撰寫價量模擬的程式碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以R語言建構初步模擬模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參與12/15之討論，並達成模擬價量、計算均線、偵測買進訊號及視覺化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料蒐集與學習程式撰寫方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>參與12/18之討論，並達成紀錄模擬中每日交易情形，並以箱型圖視覺化在不同買進上限時面臨的時間風險</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>協助完成書面報告與簡報</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以迴歸分析計算價量相互影響程度相關參數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,8 +248,15 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,8 +269,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -217,11 +296,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -232,8 +326,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,24 +719,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="5"/>
+    <col min="3" max="3" width="26.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="51.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -638,182 +756,262 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="77.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="4">
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>43794</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="46.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>43801</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>43808</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="6" t="s">
+    </row>
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>43815</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="46.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>43822</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>43794</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>43815</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>43822</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>43794</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>43801</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <v>43808</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="77.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
+      <c r="B12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="8" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <v>43815</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="46.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
+      <c r="B13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
         <v>43822</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
-        <v>43794</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="33.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
-        <v>43815</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="31" x14ac:dyDescent="0.4">
-      <c r="A9" s="4">
-        <v>43822</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="46.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="4">
-        <v>43794</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>20</v>
+      <c r="D14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
